--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="H2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="I2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="J2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.842817666666667</v>
+        <v>1.363346333333333</v>
       </c>
       <c r="N2">
-        <v>14.528453</v>
+        <v>4.090039</v>
       </c>
       <c r="O2">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="P2">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="Q2">
-        <v>406.5954423261342</v>
+        <v>0.04011510251199999</v>
       </c>
       <c r="R2">
-        <v>3659.358980935208</v>
+        <v>0.3610359226079999</v>
       </c>
       <c r="S2">
-        <v>0.08112492454589507</v>
+        <v>0.003580138276435959</v>
       </c>
       <c r="T2">
-        <v>0.08112492454589507</v>
+        <v>0.00358013827643596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="H3">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="I3">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="J3">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>114.366928</v>
       </c>
       <c r="O3">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="P3">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="Q3">
-        <v>3200.689824143089</v>
+        <v>1.121710829824</v>
       </c>
       <c r="R3">
-        <v>28806.20841728781</v>
+        <v>10.095397468416</v>
       </c>
       <c r="S3">
-        <v>0.6386095205419196</v>
+        <v>0.100108927198786</v>
       </c>
       <c r="T3">
-        <v>0.6386095205419196</v>
+        <v>0.100108927198786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="H4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="I4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="J4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>16.60982066666667</v>
       </c>
       <c r="N4">
-        <v>49.829462</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O4">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="P4">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="Q4">
-        <v>1394.534720438804</v>
+        <v>0.488727363296</v>
       </c>
       <c r="R4">
-        <v>12550.81248394923</v>
+        <v>4.398546269664</v>
       </c>
       <c r="S4">
-        <v>0.2782410036989172</v>
+        <v>0.04361727704806999</v>
       </c>
       <c r="T4">
-        <v>0.2782410036989172</v>
+        <v>0.04361727704807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.510969</v>
       </c>
       <c r="I5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="J5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.842817666666667</v>
+        <v>1.363346333333333</v>
       </c>
       <c r="N5">
-        <v>14.528453</v>
+        <v>4.090039</v>
       </c>
       <c r="O5">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="P5">
-        <v>0.0812894993003295</v>
+        <v>0.02430403345239443</v>
       </c>
       <c r="Q5">
-        <v>0.8248432334396667</v>
+        <v>0.2322092375323333</v>
       </c>
       <c r="R5">
-        <v>7.423589100957001</v>
+        <v>2.089883137791</v>
       </c>
       <c r="S5">
-        <v>0.0001645747544344376</v>
+        <v>0.02072389517595847</v>
       </c>
       <c r="T5">
-        <v>0.0001645747544344376</v>
+        <v>0.02072389517595847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.510969</v>
       </c>
       <c r="I6">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="J6">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>114.366928</v>
       </c>
       <c r="O6">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="P6">
-        <v>0.6399050410691925</v>
+        <v>0.679596855668023</v>
       </c>
       <c r="Q6">
         <v>6.493106092581334</v>
@@ -818,10 +818,10 @@
         <v>58.437954833232</v>
       </c>
       <c r="S6">
-        <v>0.001295520527273</v>
+        <v>0.5794879284692369</v>
       </c>
       <c r="T6">
-        <v>0.001295520527273001</v>
+        <v>0.5794879284692369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.510969</v>
       </c>
       <c r="I7">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="J7">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>16.60982066666667</v>
       </c>
       <c r="N7">
-        <v>49.829462</v>
+        <v>49.82946200000001</v>
       </c>
       <c r="O7">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="P7">
-        <v>0.2788054596304779</v>
+        <v>0.2960991108795826</v>
       </c>
       <c r="Q7">
         <v>2.829034485408667</v>
@@ -880,10 +880,10 @@
         <v>25.461310368678</v>
       </c>
       <c r="S7">
-        <v>0.0005644559315606513</v>
+        <v>0.2524818338315126</v>
       </c>
       <c r="T7">
-        <v>0.0005644559315606514</v>
+        <v>0.2524818338315126</v>
       </c>
     </row>
   </sheetData>
